--- a/Dummy Template.xlsx
+++ b/Dummy Template.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Python\Catalog Updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55BA057-3C9B-4103-BAAF-43480146B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A336C64-5A52-4CEF-B71F-3E7988F23052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t/>
   </si>
@@ -78,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dummy template </t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1171,128 +1167,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003FC423-FFC9-48F8-B195-1FEF22237451}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="6" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>